--- a/Docs/Observaciones-lab5.xlsx
+++ b/Docs/Observaciones-lab5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Universidad de los Andes\Universidad de los andes\EDA - Reto 1\Reto1-G01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/d_santos3_uniandes_edu_co/Documents/Séptimo semestre/Estructuras de datos y algoritmos/Reto1-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C312A5C9-F4A0-42BB-BDE0-9686EDB19A34}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,7 @@
     <sheet name="Reporte_Felipe" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Reporte_Paz!$AA$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Reporte_Paz!$AA$4:$AA$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Reporte_Paz!$AB$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Reporte_Paz!$AB$4:$AB$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Reporte_Paz!$Z$4:$Z$7</definedName>
-  </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -406,7 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,2894 +417,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Reporte_Daniel!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Reporte_Daniel!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Reporte_Daniel!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93B5-44D1-9BC3-78B89ABCAFBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Reporte_Daniel!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Reporte_Daniel!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Reporte_Daniel!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:multiLvlStrRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93B5-44D1-9BC3-78B89ABCAFBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="835015655"/>
-        <c:axId val="835030055"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="835015655"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="835030055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="835030055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="835015655"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10710127599111585"/>
-          <c:y val="0.88832719142430427"/>
-          <c:w val="0.85223734622307312"/>
-          <c:h val="7.5758105994326461E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Quick_sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$AA$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$AA$4:$AA$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1138.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2136.9699999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48C6-4645-9503-2712933860A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$AB$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1196.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5977.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24937.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>752585.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-48C6-4645-9503-2712933860A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1729464303"/>
-        <c:axId val="1729465135"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1729464303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1729465135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1729465135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1729464303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Array_list</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$K$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$K$32:$K$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>467.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7698.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44122.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>185311.35999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$L$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$L$32:$L$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>589.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9452.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65276.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247904.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$M$32:$M$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>76.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>456.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1892.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3656.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$N$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$N$32:$N$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>78.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1062.8599999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1983.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$O$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$O$32:$O$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1138.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2136.9699999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1718732191"/>
-        <c:axId val="1718728447"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1718732191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1718728447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1718728447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1718732191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Single_linked</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.42470750153480202"/>
-          <c:y val="1.1569052783803326E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6985725070957042E-2"/>
-          <c:y val="0.10727404193781634"/>
-          <c:w val="0.90164373065367753"/>
-          <c:h val="0.69930551522708251"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$S$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion ( Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$S$31:$S$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10459.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>658386.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-428E-4F2A-8E9D-C58438F6DC9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$T$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection ( Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$T$31:$T$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9339.2800000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>537709.66</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-428E-4F2A-8E9D-C58438F6DC9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$U$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell ( Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$U$31:$U$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1436.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32040.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>215971.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-428E-4F2A-8E9D-C58438F6DC9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$V$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge (Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$V$31:$V$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>309.79000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4148.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86352.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-428E-4F2A-8E9D-C58438F6DC9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$W$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$W$31:$W$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1196.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5977.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24937.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>752585.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-428E-4F2A-8E9D-C58438F6DC9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1625680255"/>
-        <c:axId val="1625681087"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1625680255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1625681087"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1625681087"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1625680255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Daniel!$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Reporte_Daniel!$I$4:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Reporte_Daniel!$J$4:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>967.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6167.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5E1-4704-80DB-BEB45DF91B82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Daniel!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection ( Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Reporte_Daniel!$I$4:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Reporte_Daniel!$K$4:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>591.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38218.620000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B5E1-4704-80DB-BEB45DF91B82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="411369687"/>
-        <c:axId val="411373527"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="411369687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411373527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="411373527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tiempo de ejecución (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411369687"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3732,7 +836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3747,6 +851,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Single_linked</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42470750153480202"/>
+          <c:y val="1.1569052783803326E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3778,16 +915,39 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6985725070957042E-2"/>
+          <c:y val="0.10727404193781634"/>
+          <c:w val="0.90164373065367753"/>
+          <c:h val="0.69930551522708251"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$S$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3807,52 +967,458 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$C$4:$C$7</c:f>
+              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2451</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4903</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$H$4:$H$7</c:f>
+              <c:f>Reporte_Paz!$S$31:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.93</c:v>
+                  <c:v>10459.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>187.22</c:v>
+                  <c:v>658386.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A27-4F81-8152-F77BC0BDE58D}"/>
+              <c16:uniqueId val="{00000000-428E-4F2A-8E9D-C58438F6DC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$T$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$T$31:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9339.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>537709.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-428E-4F2A-8E9D-C58438F6DC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$U$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$U$31:$U$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1436.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32040.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215971.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-428E-4F2A-8E9D-C58438F6DC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$V$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge (Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$V$31:$V$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>309.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4148.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86352.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-428E-4F2A-8E9D-C58438F6DC9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$W$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$R$31:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$W$31:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5977.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24937.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752585.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-428E-4F2A-8E9D-C58438F6DC9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3864,11 +1430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1025428703"/>
-        <c:axId val="1025429119"/>
+        <c:axId val="1625680255"/>
+        <c:axId val="1625681087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1025428703"/>
+        <c:axId val="1625680255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +1454,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3925,12 +1491,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025429119"/>
+        <c:crossAx val="1625681087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1025429119"/>
+        <c:axId val="1625681087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +1553,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025428703"/>
+        <c:crossAx val="1625680255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3999,6 +1565,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4043,7 +1640,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4058,6 +1655,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Array_list</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4096,6 +1718,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -4177,7 +1810,106 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD43-4441-BDB4-DC20CCCF3D5D}"/>
+              <c16:uniqueId val="{00000000-161D-4762-B89F-26E2E8288450}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-161D-4762-B89F-26E2E8288450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4189,11 +1921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1033436623"/>
-        <c:axId val="1033437039"/>
+        <c:axId val="2052045888"/>
+        <c:axId val="2052046304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1033436623"/>
+        <c:axId val="2052045888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,6 +1945,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4250,12 +2037,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033437039"/>
+        <c:crossAx val="2052046304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1033437039"/>
+        <c:axId val="2052046304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,6 +2062,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>t(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4312,18 +2154,49 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033436623"/>
+        <c:crossAx val="2052045888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4368,7 +2241,553 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$G$17:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6143.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E759-4D5F-9B66-A97EBBE552FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$H$17:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1682.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12753.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55774.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E759-4D5F-9B66-A97EBBE552FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="393256208"/>
+        <c:axId val="393257040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="393256208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393257040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="393257040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>t(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393256208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4874,7 +3293,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5364,7 +3783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5857,7 +4276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6366,6 +4785,1273 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Quick_sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$AA$4:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1138.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2136.9699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C6-4645-9503-2712933860A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5977.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24937.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752585.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48C6-4645-9503-2712933860A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729464303"/>
+        <c:axId val="1729465135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729464303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729465135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729465135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729464303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Array_list</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$K$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$K$32:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>467.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7698.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44122.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185311.35999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$L$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$L$32:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>589.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9452.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65276.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247904.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$M$32:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1892.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3656.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$N$32:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1062.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$O$32:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1138.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2136.9699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1718732191"/>
+        <c:axId val="1718728447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1718732191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718728447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1718728447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718732191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6407,86 +6093,6 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7878,7 +7484,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8394,7 +8000,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8910,8 +8516,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8938,8 +8544,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9019,11 +8625,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9034,11 +8635,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9050,7 +8646,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9070,9 +8666,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9085,10 +8678,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9128,22 +8721,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9248,8 +8842,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9381,19 +8975,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9407,6 +9002,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9426,8 +9032,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9454,8 +9060,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9535,11 +9141,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9550,11 +9151,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9566,7 +9162,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9586,9 +9182,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9601,10 +9194,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9644,22 +9237,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9764,8 +9358,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9897,19 +9491,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9923,6 +9518,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9942,7 +9548,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10458,7 +10064,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10974,7 +10580,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11490,7 +11096,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12006,1115 +11612,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>594880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>642505</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>61479</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E589172-9AC6-355A-CE88-58A86EDEA2F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>626052</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E804479-4390-CB94-BC05-6E323E6FB72B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7E589172-9AC6-355A-CE88-58A86EDEA2F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -13148,7 +11647,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13156,23 +11655,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>707046</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13188</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>729027</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89388</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C433623F-3A33-D833-50F4-77C8B8753B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C049D20B-6794-D599-5BBC-B1BC8F1FF871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13184,7 +11683,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13192,23 +11691,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1322510</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>93785</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218343</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>40298</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>169985</xdr:rowOff>
+      <xdr:colOff>421298</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161558</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA75A3-A1B1-8DCF-659E-48FDDB65E53B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4087BF31-224F-1E2C-1E57-E628F0F95364}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13220,7 +11719,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14034,8 +12533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DCD936-97B5-4C93-A9C5-4D6719EAA5B6}">
   <dimension ref="B3:O20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14287,8 +12786,16 @@
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G16" s="1" t="str">
+        <f>G3</f>
+        <v>Merge_sort</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>H3</f>
+        <v>Quick_sort</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -14304,8 +12811,15 @@
       <c r="F17" s="1">
         <v>90.35</v>
       </c>
+      <c r="G17" s="1">
+        <f>20.26</f>
+        <v>20.260000000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>74.900000000000006</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>20</v>
       </c>
@@ -14322,8 +12836,15 @@
       <c r="F18" s="1">
         <v>2255.34</v>
       </c>
+      <c r="G18" s="1">
+        <f>255.977</f>
+        <v>255.977</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1682.46</v>
+      </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>50</v>
       </c>
@@ -14340,8 +12861,15 @@
       <c r="F19" s="1">
         <v>15928</v>
       </c>
+      <c r="G19" s="1">
+        <f>1530.21</f>
+        <v>1530.21</v>
+      </c>
+      <c r="H19" s="1">
+        <v>12753.86</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -14357,6 +12885,13 @@
       </c>
       <c r="F20" s="1">
         <v>82718.100000000006</v>
+      </c>
+      <c r="G20" s="1">
+        <f>6143.9</f>
+        <v>6143.9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>55774.02</v>
       </c>
     </row>
   </sheetData>
@@ -14370,7 +12905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9377-3CBB-4B20-A87D-41D84CDEC45F}">
   <dimension ref="B3:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="K7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
@@ -14411,10 +12946,10 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J3" s="6"/>
@@ -14729,10 +13264,10 @@
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15010,7 +13545,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Observaciones-lab5.xlsx
+++ b/Docs/Observaciones-lab5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/d_santos3_uniandes_edu_co/Documents/Séptimo semestre/Estructuras de datos y algoritmos/Reto1-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C312A5C9-F4A0-42BB-BDE0-9686EDB19A34}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D906AFD-7A93-40F7-9E4C-782F9711E874}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Reporte_Felipe" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>Máquina 1</t>
   </si>
@@ -317,6 +317,39 @@
   <si>
     <t>Quick (Single_linked)</t>
   </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Array_list</t>
+  </si>
+  <si>
+    <t>Single_linked</t>
+  </si>
+  <si>
+    <t>Mejor</t>
+  </si>
+  <si>
+    <t>Peor</t>
+  </si>
+  <si>
+    <t>Sort(menos tiempo a más)</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
 </sst>
 </file>
 
@@ -837,6 +870,1273 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Quick_sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$AA$4:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1138.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2136.9699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C6-4645-9503-2712933860A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$AB$4:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1196.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5977.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24937.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752585.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48C6-4645-9503-2712933860A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1729464303"/>
+        <c:axId val="1729465135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1729464303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729465135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1729465135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729464303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Array_list</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$K$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$K$32:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>467.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7698.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44122.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185311.35999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$L$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$L$32:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>589.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9452.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65276.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247904.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$M$32:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>456.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1892.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3656.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$N$32:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1062.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Paz!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Paz!$O$32:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1138.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2136.9699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D243-4CCC-B1F6-906D4FFB35FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1718732191"/>
+        <c:axId val="1718728447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1718732191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718728447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1718728447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718732191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1761,27 +3061,27 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$C$4:$C$7</c:f>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2451</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4903</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,27 +3160,27 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$C$4:$C$7</c:f>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2451</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4903</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,7 +3266,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>n</a:t>
+                  <a:t>%</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2313,21 +3613,21 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$C$17:$C$20</c:f>
+              <c:f>Reporte_Daniel!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2451</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4903</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,21 +3712,21 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Reporte_Daniel!$C$17:$C$20</c:f>
+              <c:f>Reporte_Daniel!$B$17:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>980</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2451</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4903</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,7 +3812,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>n</a:t>
+                  <a:t>%</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2822,6 +4122,1649 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
+              <a:t>Array list</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_sort (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3899.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16203.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3AB-498D-B468-47AD45039B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>967.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6167.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3AB-498D-B468-47AD45039B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1436.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3AB-498D-B468-47AD45039B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>174.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3AB-498D-B468-47AD45039B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3AB-498D-B468-47AD45039B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="566775119"/>
+        <c:axId val="566773871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="566775119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566773871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566773871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>t(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566775119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Single</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> linked</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion_sort (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41722.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>687799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-173B-493C-9034-944CD82D5BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$17:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$E$17:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>591.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38218.620000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-173B-493C-9034-944CD82D5BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$F$17:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2255.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82718.100000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-173B-493C-9034-944CD82D5BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$G$17:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1530.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6143.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-173B-493C-9034-944CD82D5BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Daniel!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick_sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Reporte_Daniel!$H$17:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1682.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12753.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55774.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-173B-493C-9034-944CD82D5BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1001623775"/>
+        <c:axId val="1001625439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1001623775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001625439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1001625439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>t(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001623775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
               <a:t>Insertion_sort</a:t>
             </a:r>
           </a:p>
@@ -3293,7 +6236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3783,7 +6726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4276,7 +7219,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4785,1273 +7728,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Quick_sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$AA$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$AA$4:$AA$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1138.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2136.9699999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-48C6-4645-9503-2712933860A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$AB$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Single_linked)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$Z$4:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$AB$4:$AB$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1196.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5977.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24937.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>752585.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-48C6-4645-9503-2712933860A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1729464303"/>
-        <c:axId val="1729465135"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1729464303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1729465135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1729465135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1729464303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Array_list</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$K$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$K$32:$K$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>467.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7698.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44122.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>185311.35999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$L$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$L$32:$L$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>589.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9452.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65276.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>247904.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$M$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$M$32:$M$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>76.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>456.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1892.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3656.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$N$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$N$32:$N$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>78.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1062.8599999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1983.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Reporte_Paz!$O$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (Array_list)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$J$32:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Reporte_Paz!$O$32:$O$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1138.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2136.9699999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D243-4CCC-B1F6-906D4FFB35FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1718732191"/>
-        <c:axId val="1718728447"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1718732191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1718728447"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1718728447"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1718732191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6093,6 +7769,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7484,6 +9240,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11655,16 +14443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>424229</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156796</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11691,16 +14479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>218343</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85358</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1266092</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>421298</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161558</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1175971</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>110272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11720,6 +14508,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69604</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>853585</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38103</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EBE44A-35D5-A1B8-69A7-224A9ED85C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838931</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318719</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCED176-64B0-BF25-E3EB-5680BA77BA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11768,16 +14628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1418166</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1201208</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12531,10 +15391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DCD936-97B5-4C93-A9C5-4D6719EAA5B6}">
-  <dimension ref="B3:O20"/>
+  <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12547,7 +15407,7 @@
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="25.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
     <col min="18" max="18" width="22.140625" customWidth="1"/>
   </cols>
@@ -12795,7 +15655,7 @@
         <v>Quick_sort</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -12819,7 +15679,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>20</v>
       </c>
@@ -12844,7 +15704,7 @@
         <v>1682.46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>50</v>
       </c>
@@ -12868,8 +15728,11 @@
       <c r="H19" s="1">
         <v>12753.86</v>
       </c>
+      <c r="N19" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -12892,6 +15755,58 @@
       </c>
       <c r="H20" s="1">
         <v>55774.02</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -12905,7 +15820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9377-3CBB-4B20-A87D-41D84CDEC45F}">
   <dimension ref="B3:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Observaciones-lab5.xlsx
+++ b/Docs/Observaciones-lab5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/d_santos3_uniandes_edu_co/Documents/Séptimo semestre/Estructuras de datos y algoritmos/Reto1-G01/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Universidad de los Andes\Universidad de los andes\EDA - Reto 1\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D906AFD-7A93-40F7-9E4C-782F9711E874}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF26ED-FF39-4B68-B655-F0F2A1BCB542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14628,16 +14628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1418166</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61385</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481541</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1201208</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42335</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>343958</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153460</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14849,7 +14849,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6699250" cy="5540619"/>
+    <xdr:ext cx="6699250" cy="5728491"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -14864,7 +14864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="751418" y="3630083"/>
-          <a:ext cx="6699250" cy="5540619"/>
+          <a:ext cx="6699250" cy="5728491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14962,11 +14962,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-CO" sz="1200" b="0"/>
-            <a:t>La estructura de datos Array list</a:t>
+            <a:t>La estructura de datos Array lis,merge_sort</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-CO" sz="1200" b="0" baseline="0"/>
-            <a:t> es mejor, ya que sus tiempos de ejecución son más rapidos.</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1200" b="0"/>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1200" b="0" baseline="0"/>
+            <a:t> es el mejor, ya que sus tiempos de ejecución son más rapidos.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15393,8 +15401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DCD936-97B5-4C93-A9C5-4D6719EAA5B6}">
   <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N24"/>
+    <sheetView topLeftCell="G13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15820,8 +15828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9377-3CBB-4B20-A87D-41D84CDEC45F}">
   <dimension ref="B3:AB35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Observaciones-lab5.xlsx
+++ b/Docs/Observaciones-lab5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/d_santos3_uniandes_edu_co/Documents/Séptimo semestre/Estructuras de datos y algoritmos/Reto1-G01/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\OneDrive\Escritorio\ESTUDIO\PROGRAMACION\EDA\Reto1-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{F60EA93C-3050-41E0-8A2D-EE0E55F7F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D906AFD-7A93-40F7-9E4C-782F9711E874}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C90FE-FD9A-4F34-81A4-3F07B1837D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{0CC1E4EA-1589-44BB-9685-B21706C2D41E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,27 @@
     <sheet name="Reporte_Felipe" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Reporte_Felipe!$L$4:$L$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">[1]Reporte_Felipe!$M$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">[2]Reporte_Felipe!$AB$6:$AB$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">[2]Reporte_Felipe!$AC$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">[2]Reporte_Felipe!$AC$6:$AC$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">[2]Reporte_Felipe!$AD$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">[2]Reporte_Felipe!$AD$6:$AD$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Reporte_Felipe!$M$4:$M$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Reporte_Felipe!$N$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">[1]Reporte_Felipe!$N$4:$N$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[2]Reporte_Felipe!$AB$6:$AB$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">[2]Reporte_Felipe!$AC$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">[2]Reporte_Felipe!$AC$6:$AC$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">[2]Reporte_Felipe!$AD$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">[2]Reporte_Felipe!$AD$6:$AD$9</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>Máquina 1</t>
   </si>
@@ -178,9 +199,6 @@
   </si>
   <si>
     <t>215971.39</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>27.04</t>
@@ -350,6 +368,69 @@
   <si>
     <t>Selection</t>
   </si>
+  <si>
+    <t>Merge (ms)</t>
+  </si>
+  <si>
+    <t>Quick (ms)</t>
+  </si>
+  <si>
+    <t>11.71</t>
+  </si>
+  <si>
+    <t>10.58</t>
+  </si>
+  <si>
+    <t>49.32</t>
+  </si>
+  <si>
+    <t>51.06</t>
+  </si>
+  <si>
+    <t>Merge ( Single_linked)</t>
+  </si>
+  <si>
+    <t>Quick ( Single_linked)</t>
+  </si>
+  <si>
+    <t>114.11</t>
+  </si>
+  <si>
+    <t>134.08</t>
+  </si>
+  <si>
+    <t>184.04</t>
+  </si>
+  <si>
+    <t>189.38</t>
+  </si>
+  <si>
+    <t>40.63 ms</t>
+  </si>
+  <si>
+    <t>134.39</t>
+  </si>
+  <si>
+    <t>306.65</t>
+  </si>
+  <si>
+    <t>1862.44</t>
+  </si>
+  <si>
+    <t>1680.54</t>
+  </si>
+  <si>
+    <t>13253.04</t>
+  </si>
+  <si>
+    <t>6553.06</t>
+  </si>
+  <si>
+    <t>57091.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion </t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -403,11 +484,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,11 +574,257 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2856,6 +3244,3919 @@
         <c:crossAx val="1625680255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Reporte_Felipe!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$M$4:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>667.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4183.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16918.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-274C-4AEB-B788-63A7111F59F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Reporte_Felipe!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$N$4:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>506.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32724.639999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-274C-4AEB-B788-63A7111F59F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870790535"/>
+        <c:axId val="870792455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870790535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870792455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="870792455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de ejecución (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870790535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Reporte_Felipe!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$Q$4:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1948-4765-99DA-05CA1E100AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Reporte_Felipe!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$P$4:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Reporte_Felipe!$R$4:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1904.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16529.259999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74022.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1948-4765-99DA-05CA1E100AE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="870749735"/>
+        <c:axId val="870742535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="870749735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870742535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="870742535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo de ejecución (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870749735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$X$6:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$Y$6:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47CE-4589-9A0B-CBD7E37E7D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$Z$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$X$6:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$Z$6:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1680.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6553.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47CE-4589-9A0B-CBD7E37E7D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1928248031"/>
+        <c:axId val="1928255103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1928248031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928255103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1928255103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo de ejecución (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928248031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$AC$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$AB$6:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$AC$6:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A53-42B7-8758-F25FE96AC9A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$AD$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$AB$6:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$AD$6:$AD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13253.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57091.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A53-42B7-8758-F25FE96AC9A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1533490591"/>
+        <c:axId val="1493002575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1533490591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493002575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1493002575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo de ejecución (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533490591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion (Array_list)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$M$6:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2750.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11459.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DE1-477F-8BBB-B9CC98735CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Reporte_Felipe!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion ( Single_linked)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Reporte_Felipe!$N$6:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>523.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35379.910000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625419.07999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DE1-477F-8BBB-B9CC98735CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1822984143"/>
+        <c:axId val="1822976239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1822984143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822976239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1822976239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de ejecución (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822984143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>ARRAY</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> LIST</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$M$33:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$N$33:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2750.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11459.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54B9-4662-B69F-23918DBBC368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$O$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$M$33:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$O$33:$O$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>667.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4183.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16918.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54B9-4662-B69F-23918DBBC368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$P$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$M$33:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$P$33:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54B9-4662-B69F-23918DBBC368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$Q$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$M$33:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$Q$33:$Q$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54B9-4662-B69F-23918DBBC368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$R$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$M$33:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$R$33:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54B9-4662-B69F-23918DBBC368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="857982336"/>
+        <c:axId val="857982752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="857982336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857982752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="857982752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857982336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>SINGLE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> LINKED LIST</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$U$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$T$33:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$U$33:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>523.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35379.910000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625419.07999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37AA-4B13-808C-AA762C0DBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$V$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$T$33:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$V$33:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>506.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32724.639999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37AA-4B13-808C-AA762C0DBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$W$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$T$33:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$W$33:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1904.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16529.259999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74022.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37AA-4B13-808C-AA762C0DBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$X$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$T$33:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$X$33:$X$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1680.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6553.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37AA-4B13-808C-AA762C0DBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Reporte_Felipe!$Y$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$T$33:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Reporte_Felipe!$Y$33:$Y$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13253.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57091.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-37AA-4B13-808C-AA762C0DBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="863464512"/>
+        <c:axId val="863455360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863464512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863455360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863455360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863464512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7888,6 +12189,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10253,6 +14834,3566 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15019,6 +23160,698 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A819ECF5-6951-48B3-BA44-0E601F1095AB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AC17EFAD-0AD5-FD5F-7BE4-BF7E46F9E4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0039BC35-E577-4364-AFE6-08A7BFAD5CF7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1A92EB8E-FBD4-8493-97FB-B9E942F17366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16808</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26186EB-1609-44BA-9D82-76502E81A4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B6CB1-7309-49C1-B861-EFA072C8F3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243192</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3872B6-80E6-491B-B81C-F19B61FDA64D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5C401B-BE07-7E44-A2EB-64C25C66A475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>58316</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D8FE00-C65A-6F94-19E9-6B6219016DED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Reporte_Daniel"/>
+      <sheetName val="Reporte_Paz"/>
+      <sheetName val="Reporte_Felipe"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="I3" t="str">
+            <v>Insertion (Array_list)</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>Selection (Array_list)</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>Selection ( Single_linked)</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>Shell (Array_list)</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>Shell ( Single_linked)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>0.05</v>
+          </cell>
+          <cell r="M4">
+            <v>42.08</v>
+          </cell>
+          <cell r="N4">
+            <v>506.44</v>
+          </cell>
+          <cell r="P4">
+            <v>0.05</v>
+          </cell>
+          <cell r="Q4">
+            <v>5.4</v>
+          </cell>
+          <cell r="R4">
+            <v>80.540000000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>0.2</v>
+          </cell>
+          <cell r="M5">
+            <v>667.43</v>
+          </cell>
+          <cell r="N5">
+            <v>32724.639999999999</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
+          </cell>
+          <cell r="Q5">
+            <v>30.22</v>
+          </cell>
+          <cell r="R5">
+            <v>1904.81</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0.5</v>
+          </cell>
+          <cell r="M6">
+            <v>4183.6499999999996</v>
+          </cell>
+          <cell r="P6">
+            <v>0.5</v>
+          </cell>
+          <cell r="Q6">
+            <v>89.95</v>
+          </cell>
+          <cell r="R6">
+            <v>16529.259999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="M7">
+            <v>16918.12</v>
+          </cell>
+          <cell r="P7">
+            <v>1</v>
+          </cell>
+          <cell r="Q7">
+            <v>213.09</v>
+          </cell>
+          <cell r="R7">
+            <v>74022.33</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23" t="str">
+            <v xml:space="preserve">Insertion </v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>Selection</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Shell</v>
+          </cell>
+          <cell r="P23" t="str">
+            <v xml:space="preserve">Insertion </v>
+          </cell>
+          <cell r="Q23" t="str">
+            <v>Selection</v>
+          </cell>
+          <cell r="R23" t="str">
+            <v>Shell</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>0.05</v>
+          </cell>
+          <cell r="J24">
+            <v>27.04</v>
+          </cell>
+          <cell r="K24">
+            <v>42.08</v>
+          </cell>
+          <cell r="L24">
+            <v>5.4</v>
+          </cell>
+          <cell r="O24">
+            <v>0.05</v>
+          </cell>
+          <cell r="P24">
+            <v>523.29999999999995</v>
+          </cell>
+          <cell r="Q24">
+            <v>506.44</v>
+          </cell>
+          <cell r="R24">
+            <v>80.540000000000006</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25">
+            <v>0.2</v>
+          </cell>
+          <cell r="J25">
+            <v>421.61</v>
+          </cell>
+          <cell r="K25">
+            <v>667.43</v>
+          </cell>
+          <cell r="L25">
+            <v>30.22</v>
+          </cell>
+          <cell r="O25">
+            <v>0.2</v>
+          </cell>
+          <cell r="P25">
+            <v>35379.910000000003</v>
+          </cell>
+          <cell r="Q25">
+            <v>32724.639999999999</v>
+          </cell>
+          <cell r="R25">
+            <v>1904.81</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26">
+            <v>0.5</v>
+          </cell>
+          <cell r="J26">
+            <v>2750.73</v>
+          </cell>
+          <cell r="K26">
+            <v>4183.6499999999996</v>
+          </cell>
+          <cell r="L26">
+            <v>89.95</v>
+          </cell>
+          <cell r="O26">
+            <v>0.5</v>
+          </cell>
+          <cell r="P26">
+            <v>625419.07999999996</v>
+          </cell>
+          <cell r="R26">
+            <v>16529.259999999998</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27">
+            <v>1</v>
+          </cell>
+          <cell r="J27">
+            <v>11459.35</v>
+          </cell>
+          <cell r="K27">
+            <v>16918.12</v>
+          </cell>
+          <cell r="L27">
+            <v>213.09</v>
+          </cell>
+          <cell r="O27">
+            <v>1</v>
+          </cell>
+          <cell r="R27">
+            <v>74022.33</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Reporte_Daniel"/>
+      <sheetName val="Reporte_Paz"/>
+      <sheetName val="Reporte_Felipe"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="5">
+          <cell r="M5" t="str">
+            <v>Insertion (Array_list)</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>Insertion ( Single_linked)</v>
+          </cell>
+          <cell r="Y5" t="str">
+            <v>Merge (Array_list)</v>
+          </cell>
+          <cell r="Z5" t="str">
+            <v>Merge ( Single_linked)</v>
+          </cell>
+          <cell r="AC5" t="str">
+            <v>Quick (Array_list)</v>
+          </cell>
+          <cell r="AD5" t="str">
+            <v>Quick ( Single_linked)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0.05</v>
+          </cell>
+          <cell r="M6">
+            <v>27.04</v>
+          </cell>
+          <cell r="N6">
+            <v>523.29999999999995</v>
+          </cell>
+          <cell r="X6">
+            <v>0.05</v>
+          </cell>
+          <cell r="Y6">
+            <v>11.71</v>
+          </cell>
+          <cell r="Z6">
+            <v>40.630000000000003</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.05</v>
+          </cell>
+          <cell r="AC6">
+            <v>10.58</v>
+          </cell>
+          <cell r="AD6">
+            <v>134.38999999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>0.2</v>
+          </cell>
+          <cell r="M7">
+            <v>421.61</v>
+          </cell>
+          <cell r="N7">
+            <v>35379.910000000003</v>
+          </cell>
+          <cell r="X7">
+            <v>0.2</v>
+          </cell>
+          <cell r="Y7">
+            <v>49.32</v>
+          </cell>
+          <cell r="Z7">
+            <v>306.64999999999998</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.2</v>
+          </cell>
+          <cell r="AC7">
+            <v>51.06</v>
+          </cell>
+          <cell r="AD7">
+            <v>1862.44</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>0.5</v>
+          </cell>
+          <cell r="M8">
+            <v>2750.73</v>
+          </cell>
+          <cell r="N8">
+            <v>625419.07999999996</v>
+          </cell>
+          <cell r="X8">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y8">
+            <v>114.11</v>
+          </cell>
+          <cell r="Z8">
+            <v>1680.54</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.5</v>
+          </cell>
+          <cell r="AC8">
+            <v>134.08000000000001</v>
+          </cell>
+          <cell r="AD8">
+            <v>13253.04</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>1</v>
+          </cell>
+          <cell r="M9">
+            <v>11459.35</v>
+          </cell>
+          <cell r="X9">
+            <v>1</v>
+          </cell>
+          <cell r="Y9">
+            <v>184.04</v>
+          </cell>
+          <cell r="Z9">
+            <v>6553.06</v>
+          </cell>
+          <cell r="AB9">
+            <v>1</v>
+          </cell>
+          <cell r="AC9">
+            <v>189.38</v>
+          </cell>
+          <cell r="AD9">
+            <v>57091.13</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D13AD6B-1378-4D83-A827-A9F942D43B64}" name="Tabla1" displayName="Tabla1" ref="B3:H7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="B3:H7" xr:uid="{3D13AD6B-1378-4D83-A827-A9F942D43B64}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F74C6FE5-3149-47C6-ADB0-9BEDD694D7A6}" name="%" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{52164109-A3E3-4C20-B974-ECB18FDFEA37}" name="Tamaño (Array_list)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BA545B97-B764-4DD1-B049-7DD72AD97BCC}" name="Insertion_sort (ms)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{91D2F9F5-8743-4626-908C-2A72299919A4}" name="Selection(ms)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{7F589507-ECF7-4ABC-88D6-FF9A8C70FB8B}" name="Shell(ms)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2524345B-8EBF-4771-A3DB-6F97FEC48B3B}" name="Merge (ms)"/>
+    <tableColumn id="7" xr3:uid="{08EA74BF-D907-49AE-AAE1-2307790A3C7B}" name="Quick (ms)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E202765-7168-4066-BBBF-60947AC0B556}" name="Tabla2" displayName="Tabla2" ref="B14:H18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B14:H18" xr:uid="{6E202765-7168-4066-BBBF-60947AC0B556}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{82361EF0-F50D-4B70-89C3-E2365FD01F72}" name="%" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F109F59E-C994-484A-9A07-51CC34CD63F8}" name="Tamaño (Single_linked)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BCFD59AF-2EC0-4B03-9D7A-DF3A6CA73935}" name="Insertion_sort (ms)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6C51F86A-D32C-45E8-9021-CD5BF6430279}" name="Selection(ms)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{738E8BB8-12CB-4CCB-97A5-19262F6BEE77}" name="Shell(ms)" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F5AE34BB-7F98-460B-9718-D23E7580E676}" name="Merge (ms)"/>
+    <tableColumn id="7" xr3:uid="{7B824DBE-2D17-4AAE-98CF-81447815CC06}" name="Quick (ms)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -15393,7 +24226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DCD936-97B5-4C93-A9C5-4D6719EAA5B6}">
   <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="G4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N19" sqref="N19:N24"/>
     </sheetView>
   </sheetViews>
@@ -15429,10 +24262,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="6" t="s">
@@ -15729,7 +24562,7 @@
         <v>12753.86</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -15757,56 +24590,56 @@
         <v>55774.02</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -15820,8 +24653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF9377-3CBB-4B20-A87D-41D84CDEC45F}">
   <dimension ref="B3:AB35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15862,10 +24695,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
@@ -15889,16 +24722,16 @@
         <v>22</v>
       </c>
       <c r="W3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
         <v>88</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>90</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
@@ -15918,10 +24751,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="8">
         <v>0.05</v>
@@ -15986,10 +24819,10 @@
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="8">
         <v>0.2</v>
@@ -16054,10 +24887,10 @@
         <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="8">
         <v>0.5</v>
@@ -16118,10 +24951,10 @@
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
@@ -16180,10 +25013,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
@@ -16203,10 +25036,10 @@
         <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
@@ -16226,10 +25059,10 @@
         <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
@@ -16249,10 +25082,10 @@
         <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
@@ -16266,10 +25099,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
@@ -16283,10 +25116,10 @@
         <v>22</v>
       </c>
       <c r="V30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -16301,10 +25134,10 @@
         <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R31" s="8">
         <v>0.05</v>
@@ -16457,10 +25290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8B36F9-2F44-4EF1-8220-81FF293015B0}">
-  <dimension ref="B3:F18"/>
+  <dimension ref="B3:AD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="N6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AH66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16469,10 +25302,20 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16487,77 +25330,324 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>245</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>980</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>50</v>
       </c>
       <c r="C6" s="3">
         <v>2451</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>55</v>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="13">
+        <v>27.04</v>
+      </c>
+      <c r="N6" s="4">
+        <v>523.29999999999995</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>42.08</v>
+      </c>
+      <c r="R6" s="4">
+        <v>506.44</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>11.71</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>10.58</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>134.38999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>100</v>
       </c>
       <c r="C7" s="3">
         <v>4903</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>421.61</v>
+      </c>
+      <c r="N7" s="4">
+        <v>35379.910000000003</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>667.43</v>
+      </c>
+      <c r="R7" s="4">
+        <v>32724.639999999999</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="3">
+        <v>30.22</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1904.81</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>49.32</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>306.64999999999998</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>51.06</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>1862.44</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2750.73</v>
+      </c>
+      <c r="N8" s="4">
+        <v>625419.07999999996</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4183.6499999999996</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="T8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="3">
+        <v>89.95</v>
+      </c>
+      <c r="V8" s="4">
+        <v>16529.259999999998</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>114.11</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1680.54</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>134.08000000000001</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>13253.04</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>11459.35</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>16918.12</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>213.09</v>
+      </c>
+      <c r="V9" s="4">
+        <v>74022.33</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>184.04</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>6553.06</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>189.38</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>57091.13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -16572,77 +25662,286 @@
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>5</v>
       </c>
       <c r="C15" s="4">
         <v>245</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
         <v>20</v>
       </c>
       <c r="C16" s="4">
         <v>980</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>64</v>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
         <v>50</v>
       </c>
       <c r="C17" s="4">
         <v>2451</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>66</v>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
         <v>100</v>
       </c>
       <c r="C18" s="4">
         <v>4903</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M33" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N33" s="3">
+        <v>27.04</v>
+      </c>
+      <c r="O33" s="3">
+        <v>42.08</v>
+      </c>
+      <c r="P33" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>11.71</v>
+      </c>
+      <c r="R33" s="15">
+        <v>10.58</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U33" s="4">
+        <v>523.29999999999995</v>
+      </c>
+      <c r="V33" s="4">
+        <v>506.44</v>
+      </c>
+      <c r="W33" s="4">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="X33" s="12">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>134.38999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N34" s="3">
+        <v>421.61</v>
+      </c>
+      <c r="O34" s="3">
+        <v>667.43</v>
+      </c>
+      <c r="P34" s="3">
+        <v>30.22</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>49.32</v>
+      </c>
+      <c r="R34" s="15">
+        <v>51.06</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U34" s="4">
+        <v>35379.910000000003</v>
+      </c>
+      <c r="V34" s="4">
+        <v>32724.639999999999</v>
+      </c>
+      <c r="W34" s="4">
+        <v>1904.81</v>
+      </c>
+      <c r="X34" s="12">
+        <v>306.64999999999998</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>1862.44</v>
+      </c>
+    </row>
+    <row r="35" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2750.73</v>
+      </c>
+      <c r="O35" s="3">
+        <v>4183.6499999999996</v>
+      </c>
+      <c r="P35" s="3">
+        <v>89.95</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>114.11</v>
+      </c>
+      <c r="R35" s="15">
+        <v>134.08000000000001</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="U35" s="4">
+        <v>625419.07999999996</v>
+      </c>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
+        <v>16529.259999999998</v>
+      </c>
+      <c r="X35" s="12">
+        <v>1680.54</v>
+      </c>
+      <c r="Y35" s="15">
+        <v>13253.04</v>
+      </c>
+    </row>
+    <row r="36" spans="13:25" x14ac:dyDescent="0.25">
+      <c r="M36" s="8">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>11459.35</v>
+      </c>
+      <c r="O36" s="3">
+        <v>16918.12</v>
+      </c>
+      <c r="P36" s="3">
+        <v>213.09</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>184.04</v>
+      </c>
+      <c r="R36" s="16">
+        <v>189.38</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4">
+        <v>74022.33</v>
+      </c>
+      <c r="X36" s="12">
+        <v>6553.06</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>57091.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
